--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
   <si>
     <t>anchor score</t>
   </si>
@@ -106,61 +106,61 @@
     <t>risk</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>share</t>
@@ -799,7 +799,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
         <v>51</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>0.9316239316239316</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.889763779527559</v>
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.8807339449541285</v>
@@ -1031,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>0.8439716312056738</v>
@@ -1081,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>0.8141025641025641</v>
@@ -1131,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>0.8</v>
@@ -1181,7 +1181,7 @@
         <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>0.7931034482758621</v>
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>0.78</v>
@@ -1281,16 +1281,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.7577092511013216</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L11">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>0.93</v>
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1331,28 +1331,28 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.7528089887640449</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="N12">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O12">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1381,28 +1381,28 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L13">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c r="M13">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1431,7 +1431,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>0.6901408450704225</v>
@@ -1481,28 +1481,28 @@
         <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.6871165644171779</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L15">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1534,13 +1534,13 @@
         <v>48</v>
       </c>
       <c r="K16">
-        <v>0.6739130434782609</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1960,25 +1960,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1206896551724138</v>
+        <v>0.02372881355932203</v>
       </c>
       <c r="C25">
         <v>14</v>
       </c>
       <c r="D25">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E25">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F25">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>102</v>
+        <v>576</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>57</v>
@@ -2010,25 +2010,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02372881355932203</v>
+        <v>0.01985111662531017</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>318</v>
+        <v>563</v>
       </c>
       <c r="E26">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F26">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>576</v>
+        <v>1580</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>58</v>
@@ -2060,25 +2060,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01985111662531017</v>
+        <v>0.01961639058413252</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>563</v>
+        <v>858</v>
       </c>
       <c r="E27">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F27">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1580</v>
+        <v>2249</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>59</v>
@@ -2110,25 +2110,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01961639058413252</v>
+        <v>0.005008944543828265</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>858</v>
+        <v>420</v>
       </c>
       <c r="E28">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F28">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2249</v>
+        <v>2781</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>60</v>
@@ -2156,30 +2156,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.005008944543828265</v>
-      </c>
-      <c r="C29">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>420</v>
-      </c>
-      <c r="E29">
-        <v>0.97</v>
-      </c>
-      <c r="F29">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2781</v>
-      </c>
       <c r="J29" s="1" t="s">
         <v>61</v>
       </c>
@@ -2571,7 +2547,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K44">
         <v>0.3454545454545455</v>
@@ -3117,7 +3093,7 @@
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K65">
         <v>0.2655127367733507</v>
@@ -3221,7 +3197,7 @@
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K69">
         <v>0.2515395547134059</v>
@@ -3949,7 +3925,7 @@
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K97">
         <v>0.1273925321619077</v>
